--- a/adresse RZO.xlsx
+++ b/adresse RZO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>INFO</t>
   </si>
@@ -48,88 +48,79 @@
     <t>ASYMETRIQUE</t>
   </si>
   <si>
-    <t>CIDR = 2^6 - 6 =58</t>
-  </si>
-  <si>
-    <t>172.16.0.0/58</t>
-  </si>
-  <si>
-    <t>172.16.0.64/58</t>
-  </si>
-  <si>
-    <t>172.16.0.128/58</t>
-  </si>
-  <si>
-    <t>172.16.0.192/58</t>
-  </si>
-  <si>
-    <t>172.16.0.63</t>
-  </si>
-  <si>
-    <t>172.16.0.127</t>
-  </si>
-  <si>
-    <t>172.16.0.191</t>
-  </si>
-  <si>
-    <t>172.16.0.255</t>
-  </si>
-  <si>
-    <t>172.16.0.1</t>
-  </si>
-  <si>
-    <t>172.16.0.65</t>
-  </si>
-  <si>
-    <t>172.16.0.129</t>
-  </si>
-  <si>
-    <t>172.16.0.193</t>
-  </si>
-  <si>
-    <t>172.16.0.62</t>
-  </si>
-  <si>
-    <t>172.16.0.126</t>
-  </si>
-  <si>
-    <t>172.16.0.190</t>
-  </si>
-  <si>
-    <t>172.16.0.254</t>
-  </si>
-  <si>
-    <t>172.16.0.59</t>
-  </si>
-  <si>
-    <t>172.16.0.58</t>
-  </si>
-  <si>
-    <t>172.16.0.120</t>
-  </si>
-  <si>
-    <t>172.16.0.61</t>
-  </si>
-  <si>
-    <t>172.16.0.119</t>
-  </si>
-  <si>
-    <t>172.16.0.181</t>
-  </si>
-  <si>
-    <t>172.16.0.122</t>
-  </si>
-  <si>
-    <t>172.16.0.180</t>
-  </si>
-  <si>
-    <t>172.16.0.242</t>
-  </si>
-  <si>
-    <t>172.16.0.183</t>
-  </si>
-  <si>
-    <t>172.16.0.241</t>
+    <t>CIDR = 32 - 6 =26</t>
+  </si>
+  <si>
+    <t>172.16.1.0/26</t>
+  </si>
+  <si>
+    <t>172.16.1.64/26</t>
+  </si>
+  <si>
+    <t>172.16.1.128/26</t>
+  </si>
+  <si>
+    <t>172.16.1.192/26</t>
+  </si>
+  <si>
+    <t>172.16.1.63</t>
+  </si>
+  <si>
+    <t>172.16.1.127</t>
+  </si>
+  <si>
+    <t>172.16.1.191</t>
+  </si>
+  <si>
+    <t>172.16.1.255</t>
+  </si>
+  <si>
+    <t>172.16.1.1</t>
+  </si>
+  <si>
+    <t>172.16.1.65</t>
+  </si>
+  <si>
+    <t>172.16.1.129</t>
+  </si>
+  <si>
+    <t>172.16.1.193</t>
+  </si>
+  <si>
+    <t>172.16.1.62</t>
+  </si>
+  <si>
+    <t>172.16.1.126</t>
+  </si>
+  <si>
+    <t>172.16.1.190</t>
+  </si>
+  <si>
+    <t>172.16.1.254</t>
+  </si>
+  <si>
+    <t>172.16.1.64/27</t>
+  </si>
+  <si>
+    <t>172.16.1.96/27</t>
+  </si>
+  <si>
+    <t>172.16.1.128/28</t>
+  </si>
+  <si>
+    <t>172.16.1.95</t>
+  </si>
+  <si>
+    <t>172.16.1.143</t>
+  </si>
+  <si>
+    <t>172.16.1.97</t>
+  </si>
+  <si>
+    <t>172.16.1.94</t>
+  </si>
+  <si>
+    <t>172.16.1.142</t>
   </si>
 </sst>
 </file>
@@ -664,7 +655,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A9" sqref="A9:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -805,13 +796,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -819,16 +810,16 @@
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -836,16 +827,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="E13" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1">
@@ -853,16 +844,16 @@
         <v>3</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
